--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc203_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc203_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -686,10 +710,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -733,28 +757,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="3">
+      <c r="A21" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="3">
+      <c r="B21" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="3">
+      <c r="C21" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D21" t="s" s="3">
+      <c r="D21" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="3">
+      <c r="E21" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="3">
+      <c r="F21" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="3">
+      <c r="G21" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="3">
+      <c r="H21" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -779,28 +803,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="3">
+      <c r="B23" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="3">
+      <c r="C23" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="3">
+      <c r="D23" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="3">
+      <c r="E23" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="3">
+      <c r="F23" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="3">
+      <c r="G23" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="3">
+      <c r="H23" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="3">
+      <c r="I23" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -975,10 +999,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1022,28 +1046,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="3">
+      <c r="A31" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="3">
+      <c r="B31" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="3">
+      <c r="C31" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D31" t="s" s="3">
+      <c r="D31" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="3">
+      <c r="E31" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="3">
+      <c r="F31" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="3">
+      <c r="G31" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="3">
+      <c r="H31" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1068,28 +1092,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="3">
+      <c r="B33" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="3">
+      <c r="C33" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="3">
+      <c r="D33" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="3">
+      <c r="E33" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="3">
+      <c r="F33" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="3">
+      <c r="G33" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="3">
+      <c r="H33" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="3">
+      <c r="I33" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1409,10 +1433,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1456,28 +1480,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="3">
+      <c r="A46" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="3">
+      <c r="B46" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="3">
+      <c r="C46" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D46" t="s" s="3">
+      <c r="D46" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="3">
+      <c r="E46" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="3">
+      <c r="F46" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="3">
+      <c r="G46" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="3">
+      <c r="H46" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1502,28 +1526,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="3">
+      <c r="B48" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="3">
+      <c r="C48" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="3">
+      <c r="D48" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="3">
+      <c r="E48" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="3">
+      <c r="F48" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="3">
+      <c r="G48" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="3">
+      <c r="H48" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="3">
+      <c r="I48" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1698,10 +1722,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="J54" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="K54" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1745,28 +1769,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="3">
+      <c r="A56" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="3">
+      <c r="B56" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="3">
+      <c r="C56" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D56" t="s" s="3">
+      <c r="D56" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="3">
+      <c r="E56" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="3">
+      <c r="F56" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="3">
+      <c r="G56" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="3">
+      <c r="H56" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1791,28 +1815,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="3">
+      <c r="B58" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="3">
+      <c r="C58" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="3">
+      <c r="D58" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="3">
+      <c r="E58" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="3">
+      <c r="F58" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="3">
+      <c r="G58" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="3">
+      <c r="H58" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="3">
+      <c r="I58" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2074,10 +2098,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="3" t="s">
+      <c r="J67" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K67" s="3" t="s">
+      <c r="K67" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2121,28 +2145,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="3">
+      <c r="A69" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="3">
+      <c r="B69" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="3">
+      <c r="C69" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D69" t="s" s="3">
+      <c r="D69" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="3">
+      <c r="E69" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="3">
+      <c r="F69" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="3">
+      <c r="G69" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="3">
+      <c r="H69" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2167,28 +2191,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="3">
+      <c r="B71" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="3">
+      <c r="C71" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="3">
+      <c r="D71" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="3">
+      <c r="E71" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="3">
+      <c r="F71" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="3">
+      <c r="G71" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="3">
+      <c r="H71" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="3">
+      <c r="I71" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2421,10 +2445,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="3" t="s">
+      <c r="J79" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K79" s="3" t="s">
+      <c r="K79" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2468,28 +2492,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="3">
+      <c r="A81" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="3">
+      <c r="B81" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="3">
+      <c r="C81" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D81" t="s" s="3">
+      <c r="D81" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="3">
+      <c r="E81" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="3">
+      <c r="F81" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="3">
+      <c r="G81" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="3">
+      <c r="H81" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2514,28 +2538,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="3">
+      <c r="B83" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="3">
+      <c r="C83" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="3">
+      <c r="D83" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="3">
+      <c r="E83" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="3">
+      <c r="F83" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="3">
+      <c r="G83" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="3">
+      <c r="H83" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="3">
+      <c r="I83" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2768,10 +2792,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="J91" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="K91" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2815,28 +2839,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="3">
+      <c r="A93" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="3">
+      <c r="B93" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="3">
+      <c r="C93" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D93" t="s" s="3">
+      <c r="D93" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="3">
+      <c r="E93" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="3">
+      <c r="F93" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="3">
+      <c r="G93" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="3">
+      <c r="H93" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2861,28 +2885,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="3">
+      <c r="B95" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="3">
+      <c r="C95" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="3">
+      <c r="D95" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="3">
+      <c r="E95" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="3">
+      <c r="F95" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="3">
+      <c r="G95" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="3">
+      <c r="H95" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="3">
+      <c r="I95" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3028,10 +3052,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="J100" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="K100" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3075,28 +3099,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="3">
+      <c r="A102" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="3">
+      <c r="B102" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="3">
+      <c r="C102" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D102" t="s" s="3">
+      <c r="D102" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="3">
+      <c r="E102" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="3">
+      <c r="F102" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="3">
+      <c r="G102" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="3">
+      <c r="H102" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3121,28 +3145,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="3">
+      <c r="B104" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="3">
+      <c r="C104" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="3">
+      <c r="D104" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="3">
+      <c r="E104" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="3">
+      <c r="F104" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="3">
+      <c r="G104" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="3">
+      <c r="H104" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="3">
+      <c r="I104" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3288,10 +3312,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="3" t="s">
+      <c r="J109" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K109" s="3" t="s">
+      <c r="K109" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3335,28 +3359,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="3">
+      <c r="A111" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="3">
+      <c r="B111" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="3">
+      <c r="C111" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D111" t="s" s="3">
+      <c r="D111" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="3">
+      <c r="E111" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="3">
+      <c r="F111" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="3">
+      <c r="G111" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="3">
+      <c r="H111" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3381,28 +3405,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="3">
+      <c r="B113" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="3">
+      <c r="C113" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="3">
+      <c r="D113" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="3">
+      <c r="E113" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="3">
+      <c r="F113" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="3">
+      <c r="G113" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="3">
+      <c r="H113" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="3">
+      <c r="I113" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3519,10 +3543,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="3" t="s">
+      <c r="J117" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K117" s="3" t="s">
+      <c r="K117" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3566,28 +3590,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="3">
+      <c r="A119" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="3">
+      <c r="B119" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="3">
+      <c r="C119" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D119" t="s" s="3">
+      <c r="D119" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="3">
+      <c r="E119" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="3">
+      <c r="F119" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="3">
+      <c r="G119" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="3">
+      <c r="H119" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3612,28 +3636,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="3">
+      <c r="B121" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="3">
+      <c r="C121" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="3">
+      <c r="D121" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="3">
+      <c r="E121" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="3">
+      <c r="F121" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="3">
+      <c r="G121" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="3">
+      <c r="H121" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="3">
+      <c r="I121" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3721,10 +3745,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="3" t="s">
+      <c r="J124" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K124" s="3" t="s">
+      <c r="K124" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3768,28 +3792,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="3">
+      <c r="A126" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="3">
+      <c r="B126" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="3">
+      <c r="C126" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D126" t="s" s="3">
+      <c r="D126" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="3">
+      <c r="E126" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="3">
+      <c r="F126" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="3">
+      <c r="G126" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="3">
+      <c r="H126" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3814,28 +3838,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="3">
+      <c r="B128" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="3">
+      <c r="C128" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="3">
+      <c r="D128" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="3">
+      <c r="E128" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="3">
+      <c r="F128" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="3">
+      <c r="G128" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="3">
+      <c r="H128" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="3">
+      <c r="I128" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4010,10 +4034,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="3" t="s">
+      <c r="J134" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K134" s="3" t="s">
+      <c r="K134" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4057,28 +4081,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="3">
+      <c r="A136" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="3">
+      <c r="B136" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="3">
+      <c r="C136" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D136" t="s" s="3">
+      <c r="D136" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="3">
+      <c r="E136" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="3">
+      <c r="F136" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="3">
+      <c r="G136" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="3">
+      <c r="H136" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4103,28 +4127,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="3">
+      <c r="B138" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="3">
+      <c r="C138" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="3">
+      <c r="D138" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="3">
+      <c r="E138" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="3">
+      <c r="F138" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="3">
+      <c r="G138" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="3">
+      <c r="H138" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="3">
+      <c r="I138" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4241,10 +4265,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="3" t="s">
+      <c r="J142" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K142" s="3" t="s">
+      <c r="K142" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4288,28 +4312,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="3">
+      <c r="A144" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="3">
+      <c r="B144" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="3">
+      <c r="C144" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D144" t="s" s="3">
+      <c r="D144" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="3">
+      <c r="E144" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="3">
+      <c r="F144" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="3">
+      <c r="G144" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="3">
+      <c r="H144" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4334,28 +4358,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="3">
+      <c r="B146" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="3">
+      <c r="C146" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="3">
+      <c r="D146" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="3">
+      <c r="E146" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="3">
+      <c r="F146" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="3">
+      <c r="G146" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="3">
+      <c r="H146" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="3">
+      <c r="I146" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4501,10 +4525,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="3" t="s">
+      <c r="J151" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K151" s="3" t="s">
+      <c r="K151" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4548,28 +4572,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="3">
+      <c r="A153" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="3">
+      <c r="B153" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="3">
+      <c r="C153" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D153" t="s" s="3">
+      <c r="D153" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="3">
+      <c r="E153" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="3">
+      <c r="F153" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="3">
+      <c r="G153" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="3">
+      <c r="H153" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4594,28 +4618,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="3">
+      <c r="B155" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="3">
+      <c r="C155" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="3">
+      <c r="D155" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="3">
+      <c r="E155" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="3">
+      <c r="F155" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="3">
+      <c r="G155" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="3">
+      <c r="H155" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="3">
+      <c r="I155" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4761,10 +4785,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="3" t="s">
+      <c r="J160" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K160" s="3" t="s">
+      <c r="K160" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4808,28 +4832,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="3">
+      <c r="A162" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="3">
+      <c r="B162" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="3">
+      <c r="C162" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D162" t="s" s="3">
+      <c r="D162" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="3">
+      <c r="E162" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="3">
+      <c r="F162" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="3">
+      <c r="G162" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="3">
+      <c r="H162" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4854,28 +4878,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="3">
+      <c r="B164" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="3">
+      <c r="C164" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="3">
+      <c r="D164" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="3">
+      <c r="E164" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="3">
+      <c r="F164" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="3">
+      <c r="G164" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="3">
+      <c r="H164" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="3">
+      <c r="I164" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4963,10 +4987,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="3" t="s">
+      <c r="J167" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K167" s="3" t="s">
+      <c r="K167" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -5010,28 +5034,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="3">
+      <c r="A169" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="3">
+      <c r="B169" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="3">
+      <c r="C169" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D169" t="s" s="3">
+      <c r="D169" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="3">
+      <c r="E169" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="3">
+      <c r="F169" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="3">
+      <c r="G169" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="3">
+      <c r="H169" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5056,28 +5080,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="3">
+      <c r="B171" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="3">
+      <c r="C171" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="3">
+      <c r="D171" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="3">
+      <c r="E171" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="3">
+      <c r="F171" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="3">
+      <c r="G171" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="3">
+      <c r="H171" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="3">
+      <c r="I171" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5165,10 +5189,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="3" t="s">
+      <c r="J174" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K174" s="3" t="s">
+      <c r="K174" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5212,28 +5236,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="3">
+      <c r="A176" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="3">
+      <c r="B176" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="3">
+      <c r="C176" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D176" t="s" s="3">
+      <c r="D176" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="3">
+      <c r="E176" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="3">
+      <c r="F176" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="3">
+      <c r="G176" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="3">
+      <c r="H176" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5258,28 +5282,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="3">
+      <c r="B178" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="3">
+      <c r="C178" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="3">
+      <c r="D178" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="3">
+      <c r="E178" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="3">
+      <c r="F178" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="3">
+      <c r="G178" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="3">
+      <c r="H178" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="3">
+      <c r="I178" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5396,10 +5420,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="3" t="s">
+      <c r="J182" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K182" s="3" t="s">
+      <c r="K182" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5443,28 +5467,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="3">
+      <c r="A184" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="3">
+      <c r="B184" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="3">
+      <c r="C184" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D184" t="s" s="3">
+      <c r="D184" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="3">
+      <c r="E184" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="3">
+      <c r="F184" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="3">
+      <c r="G184" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="3">
+      <c r="H184" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5489,28 +5513,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="3">
+      <c r="B186" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="3">
+      <c r="C186" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="3">
+      <c r="D186" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="3">
+      <c r="E186" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="3">
+      <c r="F186" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="3">
+      <c r="G186" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="3">
+      <c r="H186" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="3">
+      <c r="I186" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5656,10 +5680,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="3" t="s">
+      <c r="J191" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K191" s="3" t="s">
+      <c r="K191" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5703,28 +5727,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="3">
+      <c r="A193" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="3">
+      <c r="B193" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="3">
+      <c r="C193" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D193" t="s" s="3">
+      <c r="D193" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="3">
+      <c r="E193" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="3">
+      <c r="F193" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="3">
+      <c r="G193" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="3">
+      <c r="H193" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5749,28 +5773,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="3">
+      <c r="B195" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="3">
+      <c r="C195" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="3">
+      <c r="D195" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="3">
+      <c r="E195" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="3">
+      <c r="F195" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="3">
+      <c r="G195" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="3">
+      <c r="H195" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="3">
+      <c r="I195" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5945,10 +5969,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="3" t="s">
+      <c r="J201" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K201" s="3" t="s">
+      <c r="K201" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
